--- a/pipeline-ms-dao/pipeline-ms-dao-tournament/Classeur1.xlsx
+++ b/pipeline-ms-dao/pipeline-ms-dao-tournament/Classeur1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kbouzan\Desktop\Cours I4\Pipeline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tkint\Documents\Pipeline\pipeline-ms-dao\pipeline-ms-dao-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766119BE-A275-40DC-AB2E-3E38168918DA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t>Nom Tournoi</t>
   </si>
@@ -107,16 +108,16 @@
     <t>Id complexe</t>
   </si>
   <si>
-    <t>MONTPELLIER 02</t>
-  </si>
-  <si>
     <t>PROFESSIONNEL</t>
+  </si>
+  <si>
+    <t>MONTPELLIER 01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -437,29 +438,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="2"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -473,21 +474,21 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2">
+        <v>43287</v>
+      </c>
+      <c r="C2" t="s">
         <v>27</v>
-      </c>
-      <c r="B2" s="2">
-        <v>43284</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -525,7 +526,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -548,33 +549,21 @@
         <v>17</v>
       </c>
       <c r="L4" s="2">
-        <v>43283</v>
+        <v>43287</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
         <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
       </c>
       <c r="I5" t="s">
         <v>16</v>
@@ -586,7 +575,59 @@
         <v>17</v>
       </c>
       <c r="L5" s="2">
-        <v>43284</v>
+        <v>43287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="2">
+        <v>43287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="2">
+        <v>43287</v>
       </c>
     </row>
   </sheetData>

--- a/pipeline-ms-dao/pipeline-ms-dao-tournament/Classeur1.xlsx
+++ b/pipeline-ms-dao/pipeline-ms-dao-tournament/Classeur1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tkint\Documents\Pipeline\pipeline-ms-dao\pipeline-ms-dao-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766119BE-A275-40DC-AB2E-3E38168918DA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A50059-B44A-4D35-9516-A2CD0B245A74}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
   <si>
     <t>Nom Tournoi</t>
   </si>
@@ -111,7 +111,7 @@
     <t>PROFESSIONNEL</t>
   </si>
   <si>
-    <t>MONTPELLIER 01</t>
+    <t>MONTPELLIER 03</t>
   </si>
 </sst>
 </file>
@@ -439,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -630,6 +630,58 @@
         <v>43287</v>
       </c>
     </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="2">
+        <v>43287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="2">
+        <v>43287</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
